--- a/artfynd/A 10527-2023.xlsx
+++ b/artfynd/A 10527-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111463857</v>
+        <v>111463862</v>
       </c>
       <c r="B2" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111463862</v>
+        <v>111463670</v>
       </c>
       <c r="B3" t="n">
-        <v>89369</v>
+        <v>96674</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5447</v>
+        <v>219880</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>554109.1038748255</v>
+        <v>554151.0634843309</v>
       </c>
       <c r="R3" t="n">
-        <v>7007938.027731327</v>
+        <v>7007942.793868498</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111463670</v>
+        <v>111463857</v>
       </c>
       <c r="B4" t="n">
-        <v>96674</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219880</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>554151.0634843309</v>
+        <v>554109.1038748255</v>
       </c>
       <c r="R4" t="n">
-        <v>7007942.793868498</v>
+        <v>7007938.027731327</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>

--- a/artfynd/A 10527-2023.xlsx
+++ b/artfynd/A 10527-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111463862</v>
+        <v>111463670</v>
       </c>
       <c r="B2" t="n">
-        <v>89369</v>
+        <v>96674</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5447</v>
+        <v>219880</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>554109.1038748255</v>
+        <v>554151.0634843309</v>
       </c>
       <c r="R2" t="n">
-        <v>7007938.027731327</v>
+        <v>7007942.793868498</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111463670</v>
+        <v>111463857</v>
       </c>
       <c r="B3" t="n">
-        <v>96674</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>219880</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>554151.0634843309</v>
+        <v>554109.1038748255</v>
       </c>
       <c r="R3" t="n">
-        <v>7007942.793868498</v>
+        <v>7007938.027731327</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111463857</v>
+        <v>111463862</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>

--- a/artfynd/A 10527-2023.xlsx
+++ b/artfynd/A 10527-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111463670</v>
+        <v>111463862</v>
       </c>
       <c r="B2" t="n">
-        <v>96674</v>
+        <v>89369</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>219880</v>
+        <v>5447</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>554151.0634843309</v>
+        <v>554109.1038748255</v>
       </c>
       <c r="R2" t="n">
-        <v>7007942.793868498</v>
+        <v>7007938.027731327</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111463862</v>
+        <v>111463670</v>
       </c>
       <c r="B4" t="n">
-        <v>89369</v>
+        <v>96674</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5447</v>
+        <v>219880</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>554109.1038748255</v>
+        <v>554151.0634843309</v>
       </c>
       <c r="R4" t="n">
-        <v>7007938.027731327</v>
+        <v>7007942.793868498</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>

--- a/artfynd/A 10527-2023.xlsx
+++ b/artfynd/A 10527-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111463862</v>
+        <v>111463857</v>
       </c>
       <c r="B2" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111463857</v>
+        <v>111463670</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>96674</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>219880</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>554109.1038748255</v>
+        <v>554151.0634843309</v>
       </c>
       <c r="R3" t="n">
-        <v>7007938.027731327</v>
+        <v>7007942.793868498</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111463670</v>
+        <v>111463862</v>
       </c>
       <c r="B4" t="n">
-        <v>96674</v>
+        <v>89369</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219880</v>
+        <v>5447</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>554151.0634843309</v>
+        <v>554109.1038748255</v>
       </c>
       <c r="R4" t="n">
-        <v>7007942.793868498</v>
+        <v>7007938.027731327</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>

--- a/artfynd/A 10527-2023.xlsx
+++ b/artfynd/A 10527-2023.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111463670</v>
+        <v>111463862</v>
       </c>
       <c r="B3" t="n">
-        <v>96674</v>
+        <v>89369</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>219880</v>
+        <v>5447</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>554151.0634843309</v>
+        <v>554109.1038748255</v>
       </c>
       <c r="R3" t="n">
-        <v>7007942.793868498</v>
+        <v>7007938.027731327</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111463862</v>
+        <v>111463670</v>
       </c>
       <c r="B4" t="n">
-        <v>89369</v>
+        <v>96674</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5447</v>
+        <v>219880</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>554109.1038748255</v>
+        <v>554151.0634843309</v>
       </c>
       <c r="R4" t="n">
-        <v>7007938.027731327</v>
+        <v>7007942.793868498</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>

--- a/artfynd/A 10527-2023.xlsx
+++ b/artfynd/A 10527-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111463857</v>
+        <v>111463670</v>
       </c>
       <c r="B2" t="n">
-        <v>89405</v>
+        <v>96674</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>219880</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>554109.1038748255</v>
+        <v>554151.0634843309</v>
       </c>
       <c r="R2" t="n">
-        <v>7007938.027731327</v>
+        <v>7007942.793868498</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111463862</v>
+        <v>111463857</v>
       </c>
       <c r="B3" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111463670</v>
+        <v>111463862</v>
       </c>
       <c r="B4" t="n">
-        <v>96674</v>
+        <v>89369</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219880</v>
+        <v>5447</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>554151.0634843309</v>
+        <v>554109.1038748255</v>
       </c>
       <c r="R4" t="n">
-        <v>7007942.793868498</v>
+        <v>7007938.027731327</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>

--- a/artfynd/A 10527-2023.xlsx
+++ b/artfynd/A 10527-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111463670</v>
+        <v>111463862</v>
       </c>
       <c r="B2" t="n">
-        <v>96674</v>
+        <v>89369</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>219880</v>
+        <v>5447</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kransrams</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Polygonatum verticillatum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) All.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>554151.0634843309</v>
+        <v>554109.1038748255</v>
       </c>
       <c r="R2" t="n">
-        <v>7007942.793868498</v>
+        <v>7007938.027731327</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111463857</v>
+        <v>111463670</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>96674</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>219880</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kransrams</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Polygonatum verticillatum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) All.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>554109.1038748255</v>
+        <v>554151.0634843309</v>
       </c>
       <c r="R3" t="n">
-        <v>7007938.027731327</v>
+        <v>7007942.793868498</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111463862</v>
+        <v>111463857</v>
       </c>
       <c r="B4" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>

--- a/artfynd/A 10527-2023.xlsx
+++ b/artfynd/A 10527-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1017,6 +1017,1348 @@
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112241871</v>
+      </c>
+      <c r="B5" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>vårvsberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>554086</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7008007</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112241877</v>
+      </c>
+      <c r="B6" t="n">
+        <v>89845</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>vårvsberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>554081</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7007966</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112241870</v>
+      </c>
+      <c r="B7" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>vårvsberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>554078</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7008009</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112241868</v>
+      </c>
+      <c r="B8" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>vårvsberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>554007</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7007988</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112241878</v>
+      </c>
+      <c r="B9" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>vårvsberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>554158</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7007927</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112241869</v>
+      </c>
+      <c r="B10" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>vårvsberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>553972</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7008047</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112241867</v>
+      </c>
+      <c r="B11" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>vårvsberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>554177</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7007859</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112241876</v>
+      </c>
+      <c r="B12" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>vårvsberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>554066</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7008014</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112241883</v>
+      </c>
+      <c r="B13" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>vårvsberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>553961</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7008062</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112241891</v>
+      </c>
+      <c r="B14" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>vårvsberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>553968</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7008002</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112241880</v>
+      </c>
+      <c r="B15" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>vårvsberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>554164</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7007925</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112241881</v>
+      </c>
+      <c r="B16" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>vårvsberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>554185</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7007926</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112241882</v>
+      </c>
+      <c r="B17" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>vårvsberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>553964</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7008000</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 10527-2023.xlsx
+++ b/artfynd/A 10527-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY17"/>
+  <dimension ref="A1:AY19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112241871</v>
+        <v>112241869</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>89539</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>554086</v>
+        <v>553972</v>
       </c>
       <c r="R5" t="n">
-        <v>7008007</v>
+        <v>7008047</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1121,10 +1121,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112241877</v>
+        <v>112241883</v>
       </c>
       <c r="B6" t="n">
-        <v>89845</v>
+        <v>78699</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1133,25 +1133,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>554081</v>
+        <v>553961</v>
       </c>
       <c r="R6" t="n">
-        <v>7007966</v>
+        <v>7008062</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112241870</v>
+        <v>112241882</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>78699</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1239,21 +1239,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>554078</v>
+        <v>553964</v>
       </c>
       <c r="R7" t="n">
-        <v>7008009</v>
+        <v>7008000</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1325,10 +1325,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112241868</v>
+        <v>112241881</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>78699</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1341,21 +1341,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1365,10 +1365,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>554007</v>
+        <v>554185</v>
       </c>
       <c r="R8" t="n">
-        <v>7007988</v>
+        <v>7007926</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1430,7 +1430,7 @@
         <v>112241878</v>
       </c>
       <c r="B9" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1529,10 +1529,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112241869</v>
+        <v>112241876</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>56446</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1545,34 +1545,50 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>100049</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>vårvsberget, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>553972</v>
+        <v>554066</v>
       </c>
       <c r="R10" t="n">
-        <v>7008047</v>
+        <v>7008014</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1631,10 +1647,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112241867</v>
+        <v>112241880</v>
       </c>
       <c r="B11" t="n">
-        <v>89405</v>
+        <v>78699</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1647,21 +1663,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1671,10 +1687,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554177</v>
+        <v>554164</v>
       </c>
       <c r="R11" t="n">
-        <v>7007859</v>
+        <v>7007925</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1733,10 +1749,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112241876</v>
+        <v>112241867</v>
       </c>
       <c r="B12" t="n">
-        <v>56414</v>
+        <v>89539</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1749,50 +1765,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>vårvsberget, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554066</v>
+        <v>554177</v>
       </c>
       <c r="R12" t="n">
-        <v>7008014</v>
+        <v>7007859</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112241883</v>
+        <v>112241871</v>
       </c>
       <c r="B13" t="n">
-        <v>78578</v>
+        <v>89539</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1867,21 +1867,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>553961</v>
+        <v>554086</v>
       </c>
       <c r="R13" t="n">
-        <v>7008062</v>
+        <v>7008007</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1956,7 +1956,7 @@
         <v>112241891</v>
       </c>
       <c r="B14" t="n">
-        <v>78578</v>
+        <v>78699</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2055,10 +2055,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112241880</v>
+        <v>112241868</v>
       </c>
       <c r="B15" t="n">
-        <v>78578</v>
+        <v>89539</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2071,21 +2071,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2095,10 +2095,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554164</v>
+        <v>554007</v>
       </c>
       <c r="R15" t="n">
-        <v>7007925</v>
+        <v>7007988</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112241881</v>
+        <v>112241870</v>
       </c>
       <c r="B16" t="n">
-        <v>78578</v>
+        <v>89539</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2173,21 +2173,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2197,10 +2197,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>554185</v>
+        <v>554078</v>
       </c>
       <c r="R16" t="n">
-        <v>7007926</v>
+        <v>7008009</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112241882</v>
+        <v>112241877</v>
       </c>
       <c r="B17" t="n">
-        <v>78578</v>
+        <v>89979</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2271,25 +2271,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2299,10 +2299,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>553964</v>
+        <v>554081</v>
       </c>
       <c r="R17" t="n">
-        <v>7008000</v>
+        <v>7007966</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2358,6 +2358,218 @@
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112304906</v>
+      </c>
+      <c r="B18" t="n">
+        <v>89485</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>112</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Stjärntagging</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Asterodon ferruginosus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Pat.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>sotberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>553996</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7008025</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112304898</v>
+      </c>
+      <c r="B19" t="n">
+        <v>90226</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>67</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sprickporing</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Diplomitoporus crustulinus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Bres.) Domański</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Sotberget, Jmt</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>553981</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7008031</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-21</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 10527-2023.xlsx
+++ b/artfynd/A 10527-2023.xlsx
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112241869</v>
+        <v>112241880</v>
       </c>
       <c r="B5" t="n">
-        <v>89539</v>
+        <v>78713</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>553972</v>
+        <v>554164</v>
       </c>
       <c r="R5" t="n">
-        <v>7008047</v>
+        <v>7007925</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1124,7 +1124,7 @@
         <v>112241883</v>
       </c>
       <c r="B6" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112241882</v>
+        <v>112241871</v>
       </c>
       <c r="B7" t="n">
-        <v>78699</v>
+        <v>89553</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1239,21 +1239,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>553964</v>
+        <v>554086</v>
       </c>
       <c r="R7" t="n">
-        <v>7008000</v>
+        <v>7008007</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1325,10 +1325,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112241881</v>
+        <v>112241891</v>
       </c>
       <c r="B8" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1365,10 +1365,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>554185</v>
+        <v>553968</v>
       </c>
       <c r="R8" t="n">
-        <v>7007926</v>
+        <v>7008002</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112241878</v>
+        <v>112241870</v>
       </c>
       <c r="B9" t="n">
-        <v>78699</v>
+        <v>89553</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1443,21 +1443,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>554158</v>
+        <v>554078</v>
       </c>
       <c r="R9" t="n">
-        <v>7007927</v>
+        <v>7008009</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1529,10 +1529,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112241876</v>
+        <v>112241868</v>
       </c>
       <c r="B10" t="n">
-        <v>56446</v>
+        <v>89553</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1545,50 +1545,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>vårvsberget, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554066</v>
+        <v>554007</v>
       </c>
       <c r="R10" t="n">
-        <v>7008014</v>
+        <v>7007988</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1647,10 +1631,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112241880</v>
+        <v>112241881</v>
       </c>
       <c r="B11" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1687,10 +1671,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554164</v>
+        <v>554185</v>
       </c>
       <c r="R11" t="n">
-        <v>7007925</v>
+        <v>7007926</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1749,10 +1733,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112241867</v>
+        <v>112241878</v>
       </c>
       <c r="B12" t="n">
-        <v>89539</v>
+        <v>78713</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1765,21 +1749,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1789,10 +1773,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554177</v>
+        <v>554158</v>
       </c>
       <c r="R12" t="n">
-        <v>7007859</v>
+        <v>7007927</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1851,10 +1835,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112241871</v>
+        <v>112241869</v>
       </c>
       <c r="B13" t="n">
-        <v>89539</v>
+        <v>89553</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1891,10 +1875,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554086</v>
+        <v>553972</v>
       </c>
       <c r="R13" t="n">
-        <v>7008007</v>
+        <v>7008047</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1953,10 +1937,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112241891</v>
+        <v>112241882</v>
       </c>
       <c r="B14" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1993,10 +1977,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>553968</v>
+        <v>553964</v>
       </c>
       <c r="R14" t="n">
-        <v>7008002</v>
+        <v>7008000</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2055,10 +2039,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112241868</v>
+        <v>112241877</v>
       </c>
       <c r="B15" t="n">
-        <v>89539</v>
+        <v>89993</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2067,25 +2051,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2095,10 +2079,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554007</v>
+        <v>554081</v>
       </c>
       <c r="R15" t="n">
-        <v>7007988</v>
+        <v>7007966</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2157,10 +2141,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112241870</v>
+        <v>112241867</v>
       </c>
       <c r="B16" t="n">
-        <v>89539</v>
+        <v>89553</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2197,10 +2181,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>554078</v>
+        <v>554177</v>
       </c>
       <c r="R16" t="n">
-        <v>7008009</v>
+        <v>7007859</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2259,10 +2243,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112241877</v>
+        <v>112241876</v>
       </c>
       <c r="B17" t="n">
-        <v>89979</v>
+        <v>56446</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2271,38 +2255,54 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1209</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>vårvsberget, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554081</v>
+        <v>554066</v>
       </c>
       <c r="R17" t="n">
-        <v>7007966</v>
+        <v>7008014</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2364,7 +2364,7 @@
         <v>112304906</v>
       </c>
       <c r="B18" t="n">
-        <v>89485</v>
+        <v>89499</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>112304898</v>
       </c>
       <c r="B19" t="n">
-        <v>90226</v>
+        <v>90240</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>

--- a/artfynd/A 10527-2023.xlsx
+++ b/artfynd/A 10527-2023.xlsx
@@ -1019,7 +1019,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112241880</v>
+        <v>112241881</v>
       </c>
       <c r="B5" t="n">
         <v>78713</v>
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>554164</v>
+        <v>554185</v>
       </c>
       <c r="R5" t="n">
-        <v>7007925</v>
+        <v>7007926</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1121,10 +1121,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112241883</v>
+        <v>112241869</v>
       </c>
       <c r="B6" t="n">
-        <v>78713</v>
+        <v>89553</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1137,21 +1137,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>553961</v>
+        <v>553972</v>
       </c>
       <c r="R6" t="n">
-        <v>7008062</v>
+        <v>7008047</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112241871</v>
+        <v>112241877</v>
       </c>
       <c r="B7" t="n">
-        <v>89553</v>
+        <v>89993</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1235,25 +1235,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>554086</v>
+        <v>554081</v>
       </c>
       <c r="R7" t="n">
-        <v>7008007</v>
+        <v>7007966</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112241891</v>
+        <v>112241880</v>
       </c>
       <c r="B8" t="n">
         <v>78713</v>
@@ -1365,10 +1365,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>553968</v>
+        <v>554164</v>
       </c>
       <c r="R8" t="n">
-        <v>7008002</v>
+        <v>7007925</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112241870</v>
+        <v>112241871</v>
       </c>
       <c r="B9" t="n">
         <v>89553</v>
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>554078</v>
+        <v>554086</v>
       </c>
       <c r="R9" t="n">
-        <v>7008009</v>
+        <v>7008007</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1631,10 +1631,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112241881</v>
+        <v>112241876</v>
       </c>
       <c r="B11" t="n">
-        <v>78713</v>
+        <v>56446</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1647,34 +1647,50 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>100049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>vårvsberget, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554185</v>
+        <v>554066</v>
       </c>
       <c r="R11" t="n">
-        <v>7007926</v>
+        <v>7008014</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1733,10 +1749,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112241878</v>
+        <v>112241870</v>
       </c>
       <c r="B12" t="n">
-        <v>78713</v>
+        <v>89553</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1749,21 +1765,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1773,10 +1789,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554158</v>
+        <v>554078</v>
       </c>
       <c r="R12" t="n">
-        <v>7007927</v>
+        <v>7008009</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1835,10 +1851,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112241869</v>
+        <v>112241883</v>
       </c>
       <c r="B13" t="n">
-        <v>89553</v>
+        <v>78713</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1851,21 +1867,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1875,10 +1891,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>553972</v>
+        <v>553961</v>
       </c>
       <c r="R13" t="n">
-        <v>7008047</v>
+        <v>7008062</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2039,10 +2055,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112241877</v>
+        <v>112241878</v>
       </c>
       <c r="B15" t="n">
-        <v>89993</v>
+        <v>78713</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2051,25 +2067,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2079,10 +2095,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554081</v>
+        <v>554158</v>
       </c>
       <c r="R15" t="n">
-        <v>7007966</v>
+        <v>7007927</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2141,10 +2157,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112241867</v>
+        <v>112241891</v>
       </c>
       <c r="B16" t="n">
-        <v>89553</v>
+        <v>78713</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2157,21 +2173,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2181,10 +2197,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>554177</v>
+        <v>553968</v>
       </c>
       <c r="R16" t="n">
-        <v>7007859</v>
+        <v>7008002</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2243,10 +2259,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112241876</v>
+        <v>112241867</v>
       </c>
       <c r="B17" t="n">
-        <v>56446</v>
+        <v>89553</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2259,50 +2275,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>vårvsberget, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554066</v>
+        <v>554177</v>
       </c>
       <c r="R17" t="n">
-        <v>7008014</v>
+        <v>7007859</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>

--- a/artfynd/A 10527-2023.xlsx
+++ b/artfynd/A 10527-2023.xlsx
@@ -1851,7 +1851,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112241883</v>
+        <v>112241882</v>
       </c>
       <c r="B13" t="n">
         <v>78713</v>
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>553961</v>
+        <v>553964</v>
       </c>
       <c r="R13" t="n">
-        <v>7008062</v>
+        <v>7008000</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112241882</v>
+        <v>112241883</v>
       </c>
       <c r="B14" t="n">
         <v>78713</v>
@@ -1993,10 +1993,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>553964</v>
+        <v>553961</v>
       </c>
       <c r="R14" t="n">
-        <v>7008000</v>
+        <v>7008062</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
